--- a/www/ig/fhir/ror/StructureDefinition-ror-questionnaire.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T14:32:19+00:00</t>
+    <t>2025-03-17T13:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale et la profession</t>
+    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale, la profession et ou le domaine de l'offre</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -821,7 +821,7 @@
 </t>
   </si>
   <si>
-    <t>Slicing pour définir les différents contextes d'usage de la fiche afin de pouvoir catégoriser ces fiches de consignes par : catégorie d'EG (obligatoire), Spécialité ordinale (optionnel) et profession (optionnel)</t>
+    <t>Slicing pour définir les différents contextes d'usage de la fiche afin de pouvoir catégoriser ces fiches de consignes par : catégorie d'EG (obligatoire), Spécialité ordinale (optionnel), profession (optionnel) et domaine (optionnel)</t>
   </si>
   <si>
     <t>Definition.useContext</t>
@@ -928,12 +928,6 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>A code that specifies a type of context being specified by a usage context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext:catEG.value[x]</t>
   </si>
   <si>
@@ -1027,6 +1021,39 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct</t>
+  </si>
+  <si>
+    <t>catChampAct</t>
+  </si>
+  <si>
+    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier le domaine (champ d'activité) dans lequel s'inscrit l'offre saisie</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/usage-context-ror-codesystem"/&gt;
+  &lt;code value="champAct"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J20-ChampActivite-ROR/FHIR/JDV-J20-ChampActivite-ROR</t>
   </si>
   <si>
     <t>Questionnaire.jurisdiction</t>
@@ -1334,7 +1361,7 @@
     <t>Questionnaire.item.type</t>
   </si>
   <si>
-    <t>Ti=ype de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
+    <t>Type de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
   </si>
   <si>
     <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, coded choice, etc.).</t>
@@ -1986,7 +2013,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2023,7 +2050,7 @@
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="208.4453125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5745,11 +5772,9 @@
       <c r="X32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5799,7 +5824,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>277</v>
@@ -5870,7 +5895,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5912,13 +5937,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -5931,7 +5956,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5940,10 +5965,10 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>280</v>
@@ -5977,7 +6002,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6027,13 +6052,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -6058,7 +6083,7 @@
         <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>254</v>
@@ -6148,7 +6173,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>260</v>
@@ -6263,7 +6288,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>264</v>
@@ -6380,7 +6405,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>267</v>
@@ -6426,7 +6451,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6443,11 +6468,9 @@
       <c r="X38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6497,7 +6520,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>277</v>
@@ -6568,7 +6591,7 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
@@ -6610,13 +6633,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
@@ -6629,7 +6652,7 @@
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6638,10 +6661,10 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>280</v>
@@ -6675,7 +6698,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6725,13 +6748,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -6756,7 +6779,7 @@
         <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>254</v>
@@ -6846,7 +6869,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>260</v>
@@ -6961,7 +6984,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>264</v>
@@ -7078,7 +7101,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>267</v>
@@ -7124,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7141,11 +7164,9 @@
       <c r="X44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7195,7 +7216,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>277</v>
@@ -7266,7 +7287,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7308,13 +7329,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -7327,7 +7348,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7336,10 +7357,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>280</v>
@@ -7373,7 +7394,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7423,12 +7444,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7449,18 +7472,20 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7484,13 +7509,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7508,7 +7533,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7523,7 +7548,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>173</v>
@@ -7535,15 +7560,15 @@
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7557,7 +7582,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7566,17 +7591,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7625,7 +7648,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7634,22 +7657,22 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7657,21 +7680,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7683,20 +7706,18 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7732,43 +7753,43 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7776,10 +7797,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7787,31 +7808,31 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7822,7 +7843,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -7837,13 +7858,11 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7861,10 +7880,10 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>87</v>
@@ -7876,27 +7895,27 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7904,35 +7923,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7956,34 +7971,32 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
@@ -7995,16 +8008,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8012,12 +8025,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8029,7 +8044,7 @@
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8038,20 +8053,16 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8075,13 +8086,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8099,10 +8108,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -8111,30 +8120,30 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8145,7 +8154,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8157,20 +8166,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8194,13 +8201,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8218,7 +8225,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8233,10 +8240,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8245,15 +8252,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>276</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8264,7 +8271,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>88</v>
@@ -8276,16 +8283,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8335,31 +8342,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>380</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8367,14 +8374,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8393,16 +8400,20 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8459,22 +8470,22 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8482,24 +8493,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8508,16 +8519,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8555,43 +8566,43 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8599,45 +8610,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8686,31 +8697,31 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8718,10 +8729,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8729,34 +8740,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8805,10 +8816,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>87</v>
@@ -8817,30 +8828,30 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>395</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8851,31 +8862,31 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>399</v>
+        <v>271</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8900,13 +8911,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8924,13 +8935,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -8942,7 +8953,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8951,15 +8962,15 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8970,10 +8981,10 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -8982,20 +8993,18 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9019,13 +9028,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9052,16 +9061,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9070,19 +9079,19 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9092,7 +9101,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9104,17 +9113,13 @@
         <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9162,7 +9167,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9171,16 +9176,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9194,24 +9199,24 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9220,16 +9225,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>417</v>
+        <v>138</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9267,37 +9272,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9311,45 +9316,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>422</v>
+        <v>147</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9374,13 +9379,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9398,25 +9403,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9430,10 +9435,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9441,34 +9446,34 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9517,25 +9522,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9549,10 +9554,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9566,7 +9571,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9575,16 +9580,20 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>261</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9632,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9641,16 +9650,16 @@
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9664,21 +9673,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9690,18 +9699,20 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9725,31 +9736,31 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>266</v>
+        <v>410</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9758,16 +9769,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>388</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9776,50 +9787,50 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>138</v>
+        <v>419</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9868,25 +9879,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9900,10 +9911,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9911,13 +9922,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -9929,13 +9940,13 @@
         <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9985,10 +9996,10 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>87</v>
@@ -10003,7 +10014,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10017,10 +10028,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10046,15 +10057,17 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10081,10 +10094,10 @@
         <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10102,7 +10115,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -10120,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10134,10 +10147,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10145,31 +10158,35 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10193,13 +10210,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10217,25 +10234,25 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10249,10 +10266,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10266,7 +10283,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10275,17 +10292,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10310,13 +10325,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10334,7 +10349,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>452</v>
+        <v>263</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10343,16 +10358,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10366,24 +10381,24 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10392,24 +10407,22 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
+        <v>265</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10441,37 +10454,37 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>458</v>
+        <v>266</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>463</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10485,52 +10498,50 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>468</v>
+        <v>147</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q73" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10574,25 +10585,25 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>463</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10606,10 +10617,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10617,13 +10628,13 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10632,20 +10643,18 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10693,16 +10702,16 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10711,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10725,10 +10734,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10736,7 +10745,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>87</v>
@@ -10751,16 +10760,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10786,13 +10795,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10810,16 +10819,16 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>481</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
@@ -10828,7 +10837,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10837,15 +10846,15 @@
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10853,13 +10862,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
@@ -10868,17 +10877,15 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10903,13 +10910,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10927,16 +10934,16 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -10945,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10959,10 +10966,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10973,7 +10980,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>88</v>
@@ -10985,16 +10992,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>376</v>
+        <v>110</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11020,13 +11027,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11044,16 +11051,16 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11062,7 +11069,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11076,10 +11083,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11093,7 +11100,7 @@
         <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11102,20 +11109,24 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>261</v>
+        <v>467</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11159,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11168,16 +11179,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>108</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11191,24 +11202,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11217,22 +11228,26 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>136</v>
+        <v>473</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11264,37 +11279,37 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>266</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11308,45 +11323,45 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>147</v>
+        <v>482</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11395,25 +11410,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>483</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11427,10 +11442,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11438,7 +11453,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>87</v>
@@ -11453,16 +11468,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11488,13 +11503,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11512,16 +11527,16 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>489</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
@@ -11530,7 +11545,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11539,15 +11554,15 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11570,24 +11585,22 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>206</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q82" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11631,7 +11644,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11640,7 +11653,7 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>495</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>100</v>
@@ -11649,7 +11662,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11663,10 +11676,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11689,20 +11702,18 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11750,7 +11761,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11759,7 +11770,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11768,7 +11779,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11782,10 +11793,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11897,10 +11908,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12014,14 +12025,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12043,10 +12054,10 @@
         <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>138</v>
@@ -12101,7 +12112,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12133,10 +12144,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12159,16 +12170,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12197,10 +12208,10 @@
         <v>281</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12218,7 +12229,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>87</v>
@@ -12236,7 +12247,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12250,10 +12261,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12264,111 +12275,817 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K88" t="s" s="2">
+      <c r="H89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
+      <c r="L94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AI94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO88">
+  <autoFilter ref="A1:AO94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12378,7 +13095,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/ror/StructureDefinition-ror-questionnaire.xlsx
+++ b/www/ig/fhir/ror/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:25:57+00:00</t>
+    <t>2025-07-30T09:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
